--- a/PLANILHA_PREENCHIDA/Template_Produtos_Mpozenato_CADASTRO_MADETEC.xlsx
+++ b/PLANILHA_PREENCHIDA/Template_Produtos_Mpozenato_CADASTRO_MADETEC.xlsx
@@ -23045,12 +23045,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -23088,12 +23088,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -23131,12 +23131,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -23174,12 +23174,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -23217,12 +23217,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -23260,12 +23260,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -23303,12 +23303,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -23346,12 +23346,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -23389,12 +23389,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -23432,12 +23432,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -23475,12 +23475,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -23518,12 +23518,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -23561,12 +23561,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -23604,12 +23604,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -23647,12 +23647,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -23690,12 +23690,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -23733,12 +23733,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -23776,12 +23776,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -23819,12 +23819,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -23862,12 +23862,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -23905,12 +23905,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -23948,12 +23948,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -23991,12 +23991,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -24034,12 +24034,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -24077,12 +24077,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -24120,12 +24120,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -24163,12 +24163,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -24206,12 +24206,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -24249,12 +24249,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -24292,12 +24292,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -24335,12 +24335,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -24378,12 +24378,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -24421,12 +24421,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -24464,12 +24464,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -24507,12 +24507,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -24550,12 +24550,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -24593,12 +24593,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -24636,12 +24636,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -24679,12 +24679,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -24722,12 +24722,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -24765,12 +24765,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -24808,12 +24808,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -24851,12 +24851,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -24894,12 +24894,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -24937,12 +24937,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -24980,12 +24980,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -25023,12 +25023,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -25066,12 +25066,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -25109,12 +25109,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -25152,12 +25152,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -25195,12 +25195,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -25238,12 +25238,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -25281,12 +25281,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -25324,12 +25324,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -25367,12 +25367,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -25410,12 +25410,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -25453,12 +25453,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -25496,12 +25496,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -25539,12 +25539,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -25582,12 +25582,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -25625,12 +25625,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -25668,12 +25668,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -25711,12 +25711,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -25754,12 +25754,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -25797,12 +25797,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -25840,12 +25840,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -25883,12 +25883,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -25926,12 +25926,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -25969,12 +25969,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -26012,12 +26012,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -26055,12 +26055,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -26098,12 +26098,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -26141,12 +26141,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -26184,12 +26184,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -26227,12 +26227,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -26270,12 +26270,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -26313,12 +26313,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -26356,12 +26356,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -26399,12 +26399,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -26442,12 +26442,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -26485,12 +26485,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -26528,12 +26528,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -26571,12 +26571,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -26614,12 +26614,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -26657,12 +26657,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -26700,12 +26700,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -26743,12 +26743,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -26786,12 +26786,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -26829,12 +26829,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>10/03/2055</t>
+          <t>12/03/2055</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
